--- a/Team-Data/2007-08/3-12-2007-08.xlsx
+++ b/Team-Data/2007-08/3-12-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="n">
-        <v>0.406</v>
+        <v>0.413</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J2" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L2" t="n">
         <v>4.2</v>
@@ -696,28 +763,28 @@
         <v>12.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O2" t="n">
         <v>21.1</v>
       </c>
       <c r="P2" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R2" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S2" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T2" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U2" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V2" t="n">
         <v>15.3</v>
@@ -729,43 +796,43 @@
         <v>5.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z2" t="n">
         <v>20.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.8</v>
+        <v>96.2</v>
       </c>
       <c r="AC2" t="n">
         <v>-3</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>28</v>
@@ -774,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
@@ -792,13 +859,13 @@
         <v>19</v>
       </c>
       <c r="AT2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -813,10 +880,10 @@
         <v>14</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J3" t="n">
-        <v>76.3</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.476</v>
@@ -875,19 +942,19 @@
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="N3" t="n">
         <v>0.388</v>
       </c>
       <c r="O3" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P3" t="n">
         <v>27</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>9.699999999999999</v>
@@ -899,7 +966,7 @@
         <v>41.5</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V3" t="n">
         <v>15.3</v>
@@ -911,22 +978,22 @@
         <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA3" t="n">
         <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,10 +1017,10 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN3" t="n">
         <v>3</v>
@@ -965,31 +1032,31 @@
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -1030,19 +1097,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
         <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.375</v>
+        <v>0.381</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
         <v>35.7</v>
@@ -1060,25 +1127,25 @@
         <v>17.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O4" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P4" t="n">
         <v>26</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.709</v>
+        <v>0.71</v>
       </c>
       <c r="R4" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S4" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T4" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U4" t="n">
         <v>21.2</v>
@@ -1093,10 +1160,10 @@
         <v>4.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
         <v>21.2</v>
@@ -1105,25 +1172,25 @@
         <v>96.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.9</v>
+        <v>-4.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
@@ -1132,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
@@ -1141,16 +1208,16 @@
         <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
         <v>25</v>
@@ -1162,10 +1229,10 @@
         <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1357,19 @@
         <v>-2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
         <v>20</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1326,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="AP5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1341,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>15</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" t="n">
         <v>37</v>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>0.569</v>
+        <v>0.578</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J6" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.44</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>19.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
         <v>0.721</v>
@@ -1448,34 +1515,34 @@
         <v>19.8</v>
       </c>
       <c r="V6" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W6" t="n">
         <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="n">
         <v>4.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC6" t="n">
         <v>-0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1490,7 +1557,7 @@
         <v>22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1499,10 +1566,10 @@
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>20</v>
@@ -1511,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
@@ -1526,28 +1593,28 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX6" t="n">
         <v>10</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>11</v>
       </c>
       <c r="AY6" t="n">
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA6" t="n">
         <v>23</v>
       </c>
       <c r="BB6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="n">
         <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.646</v>
+        <v>0.641</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
         <v>79.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L7" t="n">
         <v>5.9</v>
       </c>
       <c r="M7" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O7" t="n">
         <v>21</v>
@@ -1621,13 +1688,13 @@
         <v>11</v>
       </c>
       <c r="S7" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T7" t="n">
         <v>43.1</v>
       </c>
       <c r="U7" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V7" t="n">
         <v>12.9</v>
@@ -1636,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y7" t="n">
         <v>4.2</v>
@@ -1648,16 +1715,16 @@
         <v>21.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
@@ -1666,16 +1733,16 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>19</v>
@@ -1684,10 +1751,10 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
         <v>12</v>
@@ -1699,13 +1766,13 @@
         <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT7" t="n">
         <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,7 +1781,7 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
@@ -1729,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.594</v>
+        <v>0.587</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1782,13 +1849,13 @@
         <v>0.459</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M8" t="n">
         <v>18.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O8" t="n">
         <v>22.8</v>
@@ -1797,25 +1864,25 @@
         <v>30.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R8" t="n">
         <v>11.8</v>
       </c>
       <c r="S8" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
         <v>15.2</v>
       </c>
       <c r="W8" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>6.9</v>
@@ -1827,16 +1894,16 @@
         <v>20.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AB8" t="n">
         <v>107.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1881,7 +1948,7 @@
         <v>11</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -1940,25 +2007,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" t="n">
         <v>46</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>0.719</v>
+        <v>0.73</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J9" t="n">
-        <v>79.7</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
         <v>0.458</v>
@@ -1967,31 +2034,31 @@
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O9" t="n">
         <v>19.1</v>
       </c>
       <c r="P9" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R9" t="n">
         <v>11.6</v>
       </c>
       <c r="S9" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T9" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U9" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V9" t="n">
         <v>11.5</v>
@@ -2000,7 +2067,7 @@
         <v>7.3</v>
       </c>
       <c r="X9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y9" t="n">
         <v>3.8</v>
@@ -2009,16 +2076,16 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,13 +2097,13 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2054,10 +2121,10 @@
         <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>14</v>
@@ -2069,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2078,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>3</v>
@@ -2090,10 +2157,10 @@
         <v>22</v>
       </c>
       <c r="BB9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="n">
         <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.635</v>
+        <v>0.629</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="J10" t="n">
         <v>89.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L10" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M10" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O10" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P10" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R10" t="n">
         <v>12.1</v>
@@ -2173,13 +2240,13 @@
         <v>42.3</v>
       </c>
       <c r="U10" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V10" t="n">
         <v>13.3</v>
       </c>
       <c r="W10" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X10" t="n">
         <v>4.6</v>
@@ -2194,13 +2261,13 @@
         <v>21.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.9</v>
+        <v>110.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2215,13 +2282,13 @@
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2230,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP10" t="n">
         <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
@@ -2248,7 +2315,7 @@
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2260,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J11" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L11" t="n">
         <v>7.2</v>
       </c>
       <c r="M11" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O11" t="n">
         <v>16</v>
@@ -2343,28 +2410,28 @@
         <v>22.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="R11" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S11" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="U11" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W11" t="n">
         <v>7.4</v>
       </c>
       <c r="X11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y11" t="n">
         <v>4.4</v>
@@ -2376,22 +2443,22 @@
         <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC11" t="n">
         <v>5.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
@@ -2403,7 +2470,7 @@
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
@@ -2424,10 +2491,10 @@
         <v>26</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
@@ -2439,25 +2506,25 @@
         <v>11</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY11" t="n">
         <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2594,10 +2661,10 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2606,16 +2673,16 @@
         <v>9</v>
       </c>
       <c r="AR12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT12" t="n">
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,34 +2753,34 @@
         <v>34.3</v>
       </c>
       <c r="J13" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
         <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.331</v>
+        <v>0.335</v>
       </c>
       <c r="O13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P13" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="R13" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S13" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T13" t="n">
         <v>40.1</v>
@@ -2722,31 +2789,31 @@
         <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y13" t="n">
         <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2779,7 +2846,7 @@
         <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2797,25 +2864,25 @@
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY13" t="n">
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2952,13 +3019,13 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>20</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -3032,37 +3099,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" t="n">
-        <v>0.234</v>
+        <v>0.238</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L15" t="n">
         <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="O15" t="n">
         <v>18.3</v>
@@ -3077,10 +3144,10 @@
         <v>10.3</v>
       </c>
       <c r="S15" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T15" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U15" t="n">
         <v>19.3</v>
@@ -3089,28 +3156,28 @@
         <v>15.7</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X15" t="n">
         <v>4.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
         <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-7</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3125,22 +3192,22 @@
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3155,7 +3222,7 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT15" t="n">
         <v>20</v>
@@ -3167,13 +3234,13 @@
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" t="n">
-        <v>0.175</v>
+        <v>0.177</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,40 +3299,40 @@
         <v>35.5</v>
       </c>
       <c r="J16" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
       </c>
       <c r="L16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M16" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O16" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P16" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="R16" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T16" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="U16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V16" t="n">
         <v>14.9</v>
@@ -3277,22 +3344,22 @@
         <v>4.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA16" t="n">
         <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.6</v>
+        <v>-7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3331,13 +3398,13 @@
         <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW16" t="n">
         <v>18</v>
@@ -3364,7 +3431,7 @@
         <v>17</v>
       </c>
       <c r="BB16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" t="n">
         <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" t="n">
-        <v>0.354</v>
+        <v>0.359</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.449</v>
@@ -3423,19 +3490,19 @@
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.342</v>
+        <v>0.339</v>
       </c>
       <c r="O17" t="n">
         <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R17" t="n">
         <v>12.4</v>
@@ -3462,19 +3529,19 @@
         <v>5.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA17" t="n">
         <v>20.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.2</v>
+        <v>96</v>
       </c>
       <c r="AC17" t="n">
         <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3489,10 +3556,10 @@
         <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
@@ -3504,10 +3571,10 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3516,37 +3583,37 @@
         <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU17" t="n">
         <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
       </c>
       <c r="AZ17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BC17" t="n">
         <v>25</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>29</v>
@@ -3671,13 +3738,13 @@
         <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3686,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3704,7 +3771,7 @@
         <v>27</v>
       </c>
       <c r="AT18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -3760,37 +3827,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" t="n">
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0.415</v>
+        <v>0.406</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="J19" t="n">
         <v>78.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L19" t="n">
         <v>5.8</v>
       </c>
       <c r="M19" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O19" t="n">
         <v>19.9</v>
@@ -3799,25 +3866,25 @@
         <v>27.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R19" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S19" t="n">
         <v>30.9</v>
       </c>
       <c r="T19" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U19" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V19" t="n">
         <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
@@ -3826,31 +3893,31 @@
         <v>4.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.2</v>
+        <v>-5.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3883,10 +3950,10 @@
         <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
@@ -3910,7 +3977,7 @@
         <v>8</v>
       </c>
       <c r="BB19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" t="n">
         <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="L20" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.392</v>
+        <v>0.393</v>
       </c>
       <c r="O20" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P20" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T20" t="n">
         <v>42.4</v>
       </c>
       <c r="U20" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V20" t="n">
         <v>12.2</v>
@@ -4002,7 +4069,7 @@
         <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y20" t="n">
         <v>4.3</v>
@@ -4017,16 +4084,16 @@
         <v>100.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
         <v>6</v>
       </c>
       <c r="AF20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG20" t="n">
         <v>6</v>
@@ -4062,22 +4129,22 @@
         <v>8</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS20" t="n">
         <v>14</v>
       </c>
       <c r="AT20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>11</v>
       </c>
       <c r="BC20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
         <v>46</v>
       </c>
       <c r="G21" t="n">
-        <v>0.292</v>
+        <v>0.281</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4157,16 +4224,16 @@
         <v>0.335</v>
       </c>
       <c r="O21" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P21" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R21" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S21" t="n">
         <v>29.7</v>
@@ -4178,31 +4245,31 @@
         <v>18.4</v>
       </c>
       <c r="V21" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W21" t="n">
         <v>6.1</v>
       </c>
       <c r="X21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y21" t="n">
         <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4217,7 +4284,7 @@
         <v>6</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
         <v>18</v>
@@ -4238,16 +4305,16 @@
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ21" t="n">
         <v>22</v>
       </c>
       <c r="AR21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4256,10 +4323,10 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA21" t="n">
         <v>16</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" t="n">
         <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.636</v>
+        <v>0.631</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,7 +4391,7 @@
         <v>37.2</v>
       </c>
       <c r="J22" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.474</v>
@@ -4333,31 +4400,31 @@
         <v>9.4</v>
       </c>
       <c r="M22" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="N22" t="n">
         <v>0.38</v>
       </c>
       <c r="O22" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P22" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.727</v>
+        <v>0.725</v>
       </c>
       <c r="R22" t="n">
         <v>9.5</v>
       </c>
       <c r="S22" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
         <v>42.2</v>
       </c>
       <c r="U22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V22" t="n">
         <v>14.4</v>
@@ -4375,19 +4442,19 @@
         <v>20.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -4402,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4417,10 +4484,10 @@
         <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>23</v>
@@ -4447,10 +4514,10 @@
         <v>25</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
         <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>0.477</v>
+        <v>0.469</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4509,7 +4576,7 @@
         <v>81</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
         <v>3.5</v>
@@ -4518,31 +4585,31 @@
         <v>11.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
       <c r="O23" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P23" t="n">
         <v>25.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.702</v>
+        <v>0.703</v>
       </c>
       <c r="R23" t="n">
         <v>13.1</v>
       </c>
       <c r="S23" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T23" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
         <v>8.5</v>
@@ -4551,7 +4618,7 @@
         <v>4.9</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z23" t="n">
         <v>19.8</v>
@@ -4560,16 +4627,16 @@
         <v>20.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="AC23" t="n">
         <v>0.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -4578,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4611,16 +4678,16 @@
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
@@ -4629,16 +4696,16 @@
         <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>4.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
@@ -4763,7 +4830,7 @@
         <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
@@ -4781,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
         <v>24</v>
@@ -4796,13 +4863,13 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4945,16 +5012,16 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>16</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,13 +5191,13 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
         <v>12</v>
@@ -5142,7 +5209,7 @@
         <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -5216,55 +5283,55 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="n">
         <v>44</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J27" t="n">
         <v>78.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L27" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M27" t="n">
         <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.375</v>
+        <v>0.378</v>
       </c>
       <c r="O27" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P27" t="n">
         <v>22.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.757</v>
+        <v>0.761</v>
       </c>
       <c r="R27" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U27" t="n">
         <v>21.3</v>
@@ -5276,7 +5343,7 @@
         <v>6.6</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y27" t="n">
         <v>4.4</v>
@@ -5288,19 +5355,19 @@
         <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
       </c>
       <c r="AF27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG27" t="n">
         <v>4</v>
@@ -5312,10 +5379,10 @@
         <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>6</v>
@@ -5324,7 +5391,7 @@
         <v>7</v>
       </c>
       <c r="AN27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5336,16 +5403,16 @@
         <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5366,10 +5433,10 @@
         <v>24</v>
       </c>
       <c r="BB27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" t="n">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
@@ -5428,28 +5495,28 @@
         <v>11.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.335</v>
+        <v>0.34</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P28" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="n">
         <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S28" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U28" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V28" t="n">
         <v>16.5</v>
@@ -5458,25 +5525,25 @@
         <v>6.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
         <v>20.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.1</v>
+        <v>-7.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5506,7 +5573,7 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5515,10 +5582,10 @@
         <v>25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5542,7 +5609,7 @@
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -5580,22 +5647,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" t="n">
         <v>34</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>0.531</v>
+        <v>0.54</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J29" t="n">
         <v>81.8</v>
@@ -5604,10 +5671,10 @@
         <v>0.466</v>
       </c>
       <c r="L29" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M29" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N29" t="n">
         <v>0.406</v>
@@ -5625,7 +5692,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
         <v>40.3</v>
@@ -5634,13 +5701,13 @@
         <v>23.1</v>
       </c>
       <c r="V29" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y29" t="n">
         <v>4</v>
@@ -5649,16 +5716,16 @@
         <v>19.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5670,13 +5737,13 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
@@ -5724,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.652</v>
+        <v>0.646</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5792,28 +5859,28 @@
         <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O30" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P30" t="n">
         <v>28.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.757</v>
+        <v>0.754</v>
       </c>
       <c r="R30" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S30" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T30" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U30" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="V30" t="n">
         <v>15.1</v>
@@ -5831,10 +5898,10 @@
         <v>24.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="AC30" t="n">
         <v>6</v>
@@ -5870,13 +5937,13 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
         <v>16</v>
@@ -5888,7 +5955,7 @@
         <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6037,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
@@ -6052,7 +6119,7 @@
         <v>12</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6064,13 +6131,13 @@
         <v>4</v>
       </c>
       <c r="AR31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
@@ -6085,19 +6152,19 @@
         <v>8</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-12-2007-08</t>
+          <t>2008-03-12</t>
         </is>
       </c>
     </row>
